--- a/biology/Botanique/Galium_cespitosum/Galium_cespitosum.xlsx
+++ b/biology/Botanique/Galium_cespitosum/Galium_cespitosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gaillet cespiteux, Gaillet gazonnant ou Gaillet en touffe (Galium cespitosum Lam.) est une plante herbacée de la famille des Rubiacées.
-Cette espèce est endémique des Pyrénées avec Galium pyrenaicum à fleurs blanches et Galium cometerhizon dont les fleurs blanches sont rosées en dehors[1].
+Cette espèce est endémique des Pyrénées avec Galium pyrenaicum à fleurs blanches et Galium cometerhizon dont les fleurs blanches sont rosées en dehors.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Galium cespitosum est une plante gazonnante à tiges couchées, dont les fleurs jaunâtres sont groupées par une à trois aux extrémités des tiges. Floraison de juin à aout.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rocailles, pelouses, combes à neige jusqu'à 2 600 m d'altitude.
 </t>
